--- a/digs-desktop/saved/levels.xlsx
+++ b/digs-desktop/saved/levels.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
   <si>
     <t>pack</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -118,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +165,24 @@
       <color theme="8"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -228,13 +254,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -608,7 +636,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -620,7 +648,7 @@
     <col min="5" max="5" width="5.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="4.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" customWidth="1"/>
     <col min="10" max="10" width="30.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="23.25" style="1" customWidth="1"/>
@@ -688,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
@@ -1106,7 +1134,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13" s="5">
         <v>0</v>
@@ -1121,108 +1149,108 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5">
+    <row r="14" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6">
         <v>3</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>180</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
+        <v>50</v>
+      </c>
+      <c r="E14" s="6">
+        <v>30</v>
+      </c>
+      <c r="F14" s="6">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>540</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7">
+        <v>300</v>
+      </c>
+      <c r="D15" s="7">
+        <v>150</v>
+      </c>
+      <c r="E15" s="7">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7">
+        <v>5</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>840</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6">
+        <v>300</v>
+      </c>
+      <c r="D16" s="6">
         <v>200</v>
       </c>
-      <c r="E14" s="5">
-        <v>30</v>
-      </c>
-      <c r="F14" s="5">
-        <v>10</v>
-      </c>
-      <c r="G14" s="5">
-        <v>2</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>540</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5">
-        <v>300</v>
-      </c>
-      <c r="D15" s="5">
-        <v>200</v>
-      </c>
-      <c r="E15" s="5">
-        <v>20</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="E16" s="6">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6">
         <v>5</v>
       </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>800</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5">
-        <v>5</v>
-      </c>
-      <c r="C16" s="5">
-        <v>300</v>
-      </c>
-      <c r="D16" s="5">
-        <v>200</v>
-      </c>
-      <c r="E16" s="5">
-        <v>20</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>2</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>900</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="5" t="s">
+      <c r="G16" s="6">
+        <v>8</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1024</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1234,13 +1262,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="5">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="D17" s="5">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E17" s="5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F17" s="5">
         <v>0</v>
@@ -1249,16 +1277,16 @@
         <v>2</v>
       </c>
       <c r="H17" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="5">
         <v>1024</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1269,31 +1297,31 @@
         <v>7</v>
       </c>
       <c r="C18" s="5">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="D18" s="5">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E18" s="5">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F18" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G18" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" s="5">
         <v>0</v>
       </c>
       <c r="I18" s="5">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1303,22 +1331,70 @@
       <c r="B19" s="5">
         <v>8</v>
       </c>
+      <c r="C19" s="5">
+        <v>300</v>
+      </c>
+      <c r="D19" s="5">
+        <v>100</v>
+      </c>
+      <c r="E19" s="5">
+        <v>20</v>
+      </c>
+      <c r="F19" s="5">
+        <v>20</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>840</v>
+      </c>
       <c r="K19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
-        <v>2</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0</v>
+    </row>
+    <row r="20" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5">
+        <v>300</v>
+      </c>
+      <c r="D20" s="5">
+        <v>500</v>
+      </c>
+      <c r="E20" s="5">
+        <v>30</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>540</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">

--- a/digs-desktop/saved/levels.xlsx
+++ b/digs-desktop/saved/levels.xlsx
@@ -636,7 +636,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1157,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="6">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="D14" s="6">
         <v>50</v>

--- a/digs-desktop/saved/levels.xlsx
+++ b/digs-desktop/saved/levels.xlsx
@@ -633,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1044,249 +1044,45 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>300</v>
-      </c>
-      <c r="D11" s="5">
-        <v>100</v>
-      </c>
-      <c r="E11" s="5">
-        <v>20</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>540</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>300</v>
-      </c>
-      <c r="D12" s="5">
-        <v>200</v>
-      </c>
-      <c r="E12" s="5">
-        <v>30</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>540</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5">
-        <v>300</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2</v>
-      </c>
-      <c r="F13" s="5">
-        <v>30</v>
-      </c>
-      <c r="G13" s="5">
-        <v>5</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>540</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
-        <v>1</v>
-      </c>
-      <c r="B14" s="6">
-        <v>3</v>
-      </c>
-      <c r="C14" s="6">
-        <v>240</v>
-      </c>
-      <c r="D14" s="6">
-        <v>50</v>
-      </c>
-      <c r="E14" s="6">
-        <v>30</v>
-      </c>
-      <c r="F14" s="6">
-        <v>10</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
-        <v>540</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
-        <v>1</v>
-      </c>
-      <c r="B15" s="7">
-        <v>4</v>
-      </c>
-      <c r="C15" s="7">
-        <v>300</v>
-      </c>
-      <c r="D15" s="7">
-        <v>150</v>
-      </c>
-      <c r="E15" s="7">
-        <v>20</v>
-      </c>
-      <c r="F15" s="7">
-        <v>5</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7">
-        <v>840</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
-        <v>1</v>
-      </c>
-      <c r="B16" s="6">
-        <v>5</v>
-      </c>
-      <c r="C16" s="6">
-        <v>300</v>
-      </c>
-      <c r="D16" s="6">
-        <v>200</v>
-      </c>
-      <c r="E16" s="6">
-        <v>15</v>
-      </c>
-      <c r="F16" s="6">
-        <v>5</v>
-      </c>
-      <c r="G16" s="6">
-        <v>8</v>
-      </c>
-      <c r="H16" s="6">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6">
-        <v>1024</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
+    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>1</v>
       </c>
       <c r="B17" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C17" s="5">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D17" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E17" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F17" s="5">
         <v>0</v>
       </c>
       <c r="G17" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="5">
-        <v>1024</v>
+        <v>540</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1294,34 +1090,34 @@
         <v>1</v>
       </c>
       <c r="B18" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C18" s="5">
         <v>300</v>
       </c>
       <c r="D18" s="5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E18" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
       </c>
       <c r="G18" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" s="5">
         <v>0</v>
       </c>
       <c r="I18" s="5">
-        <v>2048</v>
+        <v>540</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1329,28 +1125,28 @@
         <v>1</v>
       </c>
       <c r="B19" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C19" s="5">
         <v>300</v>
       </c>
       <c r="D19" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F19" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G19" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H19" s="5">
         <v>0</v>
       </c>
       <c r="I19" s="5">
-        <v>840</v>
+        <v>540</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>22</v>
@@ -1359,90 +1155,252 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5">
-        <v>1</v>
-      </c>
-      <c r="B20" s="5">
+    <row r="20" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6">
+        <v>240</v>
+      </c>
+      <c r="D20" s="6">
+        <v>50</v>
+      </c>
+      <c r="E20" s="6">
+        <v>30</v>
+      </c>
+      <c r="F20" s="6">
+        <v>10</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>540</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>1</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4</v>
+      </c>
+      <c r="C21" s="7">
+        <v>300</v>
+      </c>
+      <c r="D21" s="7">
+        <v>150</v>
+      </c>
+      <c r="E21" s="7">
+        <v>20</v>
+      </c>
+      <c r="F21" s="7">
+        <v>5</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
+        <v>840</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
+        <v>1</v>
+      </c>
+      <c r="B22" s="6">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6">
+        <v>300</v>
+      </c>
+      <c r="D22" s="6">
+        <v>200</v>
+      </c>
+      <c r="E22" s="6">
+        <v>15</v>
+      </c>
+      <c r="F22" s="6">
+        <v>5</v>
+      </c>
+      <c r="G22" s="6">
+        <v>8</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1024</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5">
+        <v>400</v>
+      </c>
+      <c r="D23" s="5">
+        <v>200</v>
+      </c>
+      <c r="E23" s="5">
+        <v>15</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2</v>
+      </c>
+      <c r="H23" s="5">
+        <v>2</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1024</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5">
+        <v>300</v>
+      </c>
+      <c r="D24" s="5">
+        <v>50</v>
+      </c>
+      <c r="E24" s="5">
+        <v>20</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>3</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>2048</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <v>300</v>
+      </c>
+      <c r="D25" s="5">
+        <v>100</v>
+      </c>
+      <c r="E25" s="5">
+        <v>20</v>
+      </c>
+      <c r="F25" s="5">
+        <v>20</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>840</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5">
         <v>9</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C26" s="5">
         <v>300</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D26" s="5">
         <v>500</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E26" s="5">
         <v>30</v>
       </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="I20" s="5">
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5">
         <v>540</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="5" t="s">
+      <c r="K26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M26" s="5" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
-        <v>2</v>
-      </c>
-      <c r="B22" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
-        <v>2</v>
-      </c>
-      <c r="B24" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
-        <v>2</v>
-      </c>
-      <c r="B25" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
-        <v>2</v>
-      </c>
-      <c r="B26" s="4">
-        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1450,7 +1408,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1458,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1466,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1474,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1482,7 +1440,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="4">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1490,6 +1448,54 @@
         <v>2</v>
       </c>
       <c r="B32" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="4">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="4">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="4">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="4">
+        <v>2</v>
+      </c>
+      <c r="B37" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4">
         <v>12</v>
       </c>
     </row>

--- a/digs-desktop/saved/levels.xlsx
+++ b/digs-desktop/saved/levels.xlsx
@@ -636,7 +636,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -751,10 +751,10 @@
         <v>180</v>
       </c>
       <c r="D3" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>

--- a/digs-desktop/saved/levels.xlsx
+++ b/digs-desktop/saved/levels.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
   <si>
     <t>pack</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -354,7 +354,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -633,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1044,44 +1044,245 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5">
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
         <v>300</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D12" s="5">
         <v>100</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E12" s="5">
         <v>20</v>
       </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>540</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="5" t="s">
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>300</v>
+      </c>
+      <c r="D13" s="5">
+        <v>200</v>
+      </c>
+      <c r="E13" s="5">
+        <v>20</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>300</v>
+      </c>
+      <c r="D14" s="5">
+        <v>100</v>
+      </c>
+      <c r="E14" s="5">
+        <v>20</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>540</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5">
+        <v>300</v>
+      </c>
+      <c r="D15" s="5">
+        <v>200</v>
+      </c>
+      <c r="E15" s="5">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>540</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5">
+        <v>300</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>30</v>
+      </c>
+      <c r="G16" s="5">
+        <v>5</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>540</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6">
+        <v>240</v>
+      </c>
+      <c r="D17" s="6">
+        <v>50</v>
+      </c>
+      <c r="E17" s="6">
+        <v>30</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>540</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1090,16 +1291,16 @@
         <v>1</v>
       </c>
       <c r="B18" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C18" s="5">
         <v>300</v>
       </c>
       <c r="D18" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E18" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
@@ -1112,12 +1313,6 @@
       </c>
       <c r="I18" s="5">
         <v>540</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1125,209 +1320,185 @@
         <v>1</v>
       </c>
       <c r="B19" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19" s="5">
         <v>300</v>
       </c>
       <c r="D19" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E19" s="5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5">
+        <v>300</v>
+      </c>
+      <c r="D20" s="5">
+        <v>300</v>
+      </c>
+      <c r="E20" s="5">
         <v>30</v>
       </c>
-      <c r="G19" s="5">
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5">
+        <v>300</v>
+      </c>
+      <c r="D21" s="5">
+        <v>200</v>
+      </c>
+      <c r="E21" s="5">
+        <v>30</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
+        <v>1</v>
+      </c>
+      <c r="B22" s="5">
+        <v>10</v>
+      </c>
+      <c r="C22" s="5">
+        <v>300</v>
+      </c>
+      <c r="D22" s="5">
+        <v>200</v>
+      </c>
+      <c r="E22" s="5">
+        <v>30</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <v>1</v>
+      </c>
+      <c r="B23" s="7">
+        <v>11</v>
+      </c>
+      <c r="C23" s="7">
+        <v>300</v>
+      </c>
+      <c r="D23" s="7">
+        <v>150</v>
+      </c>
+      <c r="E23" s="7">
+        <v>20</v>
+      </c>
+      <c r="F23" s="7">
         <v>5</v>
       </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <v>540</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="5" t="s">
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>840</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6">
-        <v>1</v>
-      </c>
-      <c r="B20" s="6">
-        <v>3</v>
-      </c>
-      <c r="C20" s="6">
-        <v>240</v>
-      </c>
-      <c r="D20" s="6">
-        <v>50</v>
-      </c>
-      <c r="E20" s="6">
-        <v>30</v>
-      </c>
-      <c r="F20" s="6">
-        <v>10</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
-        <v>540</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="6" t="s">
+    <row r="24" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6">
+        <v>12</v>
+      </c>
+      <c r="C24" s="6">
+        <v>300</v>
+      </c>
+      <c r="D24" s="6">
+        <v>200</v>
+      </c>
+      <c r="E24" s="6">
+        <v>15</v>
+      </c>
+      <c r="F24" s="6">
+        <v>5</v>
+      </c>
+      <c r="G24" s="6">
+        <v>8</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1024</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
-        <v>1</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4</v>
-      </c>
-      <c r="C21" s="7">
-        <v>300</v>
-      </c>
-      <c r="D21" s="7">
-        <v>150</v>
-      </c>
-      <c r="E21" s="7">
-        <v>20</v>
-      </c>
-      <c r="F21" s="7">
-        <v>5</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7">
-        <v>840</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
-        <v>1</v>
-      </c>
-      <c r="B22" s="6">
-        <v>5</v>
-      </c>
-      <c r="C22" s="6">
-        <v>300</v>
-      </c>
-      <c r="D22" s="6">
-        <v>200</v>
-      </c>
-      <c r="E22" s="6">
-        <v>15</v>
-      </c>
-      <c r="F22" s="6">
-        <v>5</v>
-      </c>
-      <c r="G22" s="6">
-        <v>8</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6">
-        <v>1024</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5">
-        <v>1</v>
-      </c>
-      <c r="B23" s="5">
-        <v>6</v>
-      </c>
-      <c r="C23" s="5">
-        <v>400</v>
-      </c>
-      <c r="D23" s="5">
-        <v>200</v>
-      </c>
-      <c r="E23" s="5">
-        <v>15</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <v>2</v>
-      </c>
-      <c r="H23" s="5">
-        <v>2</v>
-      </c>
-      <c r="I23" s="5">
-        <v>1024</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5">
-        <v>1</v>
-      </c>
-      <c r="B24" s="5">
-        <v>7</v>
-      </c>
-      <c r="C24" s="5">
-        <v>300</v>
-      </c>
-      <c r="D24" s="5">
-        <v>50</v>
-      </c>
-      <c r="E24" s="5">
-        <v>20</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <v>3</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5">
-        <v>2048</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1335,34 +1506,34 @@
         <v>1</v>
       </c>
       <c r="B25" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C25" s="5">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D25" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E25" s="5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F25" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G25" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="5">
-        <v>840</v>
+        <v>1024</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1370,61 +1541,107 @@
         <v>1</v>
       </c>
       <c r="B26" s="5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C26" s="5">
         <v>300</v>
       </c>
       <c r="D26" s="5">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="E26" s="5">
+        <v>20</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>3</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>2048</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5">
+        <v>15</v>
+      </c>
+      <c r="C27" s="5">
+        <v>300</v>
+      </c>
+      <c r="D27" s="5">
+        <v>200</v>
+      </c>
+      <c r="E27" s="5">
         <v>30</v>
       </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
-      <c r="H26" s="5">
-        <v>1</v>
-      </c>
-      <c r="I26" s="5">
-        <v>540</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="5" t="s">
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5">
+        <v>540</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="M27" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
-        <v>2</v>
-      </c>
-      <c r="B27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
-        <v>2</v>
-      </c>
-      <c r="B28" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
-        <v>2</v>
-      </c>
-      <c r="B29" s="4">
-        <v>3</v>
+    <row r="28" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5">
+        <v>1</v>
+      </c>
+      <c r="B28" s="5">
+        <v>16</v>
+      </c>
+      <c r="C28" s="5">
+        <v>300</v>
+      </c>
+      <c r="D28" s="5">
+        <v>100</v>
+      </c>
+      <c r="E28" s="5">
+        <v>20</v>
+      </c>
+      <c r="F28" s="5">
+        <v>20</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>840</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1432,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1440,7 +1657,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1448,7 +1665,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1456,7 +1673,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1464,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1472,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1480,7 +1697,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1488,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1496,6 +1713,30 @@
         <v>2</v>
       </c>
       <c r="B38" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="4">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4">
+        <v>2</v>
+      </c>
+      <c r="B40" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4">
         <v>12</v>
       </c>
     </row>
